--- a/docs/Supplementary Tables.xlsx
+++ b/docs/Supplementary Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efrat\Documents\GitHub\microbiome-metabolome-curated-data\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796077A9-9340-4EFC-9700-A8A7368C73BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320AC4D8-D501-43C1-B96F-0FA8AF052C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C58E8523-33F6-4E0C-953F-5B6F4D40C8B0}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="200">
   <si>
     <t>Dataset ID (1)</t>
   </si>
@@ -1211,7 +1211,7 @@
       <pane xSplit="1" ySplit="11" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="R20" sqref="R20"/>
+      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1751,8 +1751,8 @@
       <c r="D19" s="12">
         <v>42</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>27</v>
+      <c r="E19" s="12">
+        <v>54</v>
       </c>
       <c r="F19" s="12">
         <v>42</v>

--- a/docs/Supplementary Tables.xlsx
+++ b/docs/Supplementary Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efrat\Documents\GitHub\microbiome-metabolome-curated-data\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320AC4D8-D501-43C1-B96F-0FA8AF052C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152BF305-E614-4FAF-B43A-363C84840C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C58E8523-33F6-4E0C-953F-5B6F4D40C8B0}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Table S2" sheetId="3" r:id="rId3"/>
     <sheet name="Table S3" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="198">
   <si>
     <t>Dataset ID (1)</t>
   </si>
@@ -349,9 +349,6 @@
     <t>Provided in data</t>
   </si>
   <si>
-    <t>NA (see comments)</t>
-  </si>
-  <si>
     <t>Longitudinal samples (over 6 months) from patients with Irritable Bowel Syndrome and controls.</t>
   </si>
   <si>
@@ -368,9 +365,6 @@
   </si>
   <si>
     <t>Infants over several time points during the 1st year of life, either breast-fed, formula-fed, or experimental formula fed.</t>
-  </si>
-  <si>
-    <t>We used only the samples from month 12 per infant, who also consumed complementary foods.</t>
   </si>
   <si>
     <t>68 (see comments)</t>
@@ -1168,31 +1162,31 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -1211,7 +1205,7 @@
       <pane xSplit="1" ySplit="11" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomRight" activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1237,7 +1231,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
@@ -1247,22 +1241,22 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
@@ -1297,7 +1291,7 @@
         <v>6</v>
       </c>
       <c r="Q10" s="25" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="R10" s="25" t="s">
         <v>7</v>
@@ -1319,7 +1313,7 @@
         <v>9</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>10</v>
@@ -1328,10 +1322,10 @@
         <v>11</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>12</v>
@@ -1351,10 +1345,10 @@
     </row>
     <row r="12" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12" s="12">
         <v>127</v>
@@ -1369,7 +1363,7 @@
         <v>220</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>15</v>
@@ -1384,7 +1378,7 @@
         <v>17</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>18</v>
@@ -1402,15 +1396,15 @@
         <v>21</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C13" s="12">
         <v>56</v>
@@ -1425,7 +1419,7 @@
         <v>157</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>15</v>
@@ -1440,7 +1434,7 @@
         <v>27</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>23</v>
@@ -1460,10 +1454,10 @@
     </row>
     <row r="14" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C14" s="12">
         <v>89</v>
@@ -1508,21 +1502,21 @@
         <v>20</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B15" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>27</v>
@@ -1564,18 +1558,15 @@
         <v>35</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="R15" s="4" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C16" s="12">
         <v>26</v>
@@ -1590,7 +1581,7 @@
         <v>212</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>36</v>
@@ -1623,15 +1614,15 @@
         <v>39</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C17" s="12">
         <v>54</v>
@@ -1661,7 +1652,7 @@
         <v>42</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>23</v>
@@ -1684,7 +1675,7 @@
     </row>
     <row r="18" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>45</v>
@@ -1702,10 +1693,10 @@
         <v>27</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>16</v>
@@ -1714,10 +1705,10 @@
         <v>22</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>23</v>
@@ -1726,7 +1717,7 @@
         <v>38</v>
       </c>
       <c r="O18" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>20</v>
@@ -1735,18 +1726,18 @@
         <v>46</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>103</v>
+        <v>130</v>
+      </c>
+      <c r="C19" s="12">
+        <v>54</v>
       </c>
       <c r="D19" s="12">
         <v>42</v>
@@ -1758,7 +1749,7 @@
         <v>42</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>15</v>
@@ -1791,7 +1782,7 @@
         <v>49</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="58" x14ac:dyDescent="0.35">
@@ -1799,7 +1790,7 @@
         <v>61</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C20" s="12">
         <v>102</v>
@@ -1844,15 +1835,15 @@
         <v>20</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C21" s="12">
         <v>24</v>
@@ -1867,7 +1858,7 @@
         <v>143</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>54</v>
@@ -1900,15 +1891,15 @@
         <v>58</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C22" s="4">
         <v>21</v>
@@ -1923,10 +1914,10 @@
         <v>23</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>27</v>
@@ -1935,7 +1926,7 @@
         <v>27</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>34</v>
@@ -1944,7 +1935,7 @@
         <v>18</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O22" s="4" t="s">
         <v>20</v>
@@ -1953,15 +1944,15 @@
         <v>20</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C23" s="4">
         <v>8</v>
@@ -1985,13 +1976,13 @@
         <v>16</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L23" s="24" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>23</v>
@@ -2006,15 +1997,15 @@
         <v>20</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C24" s="4">
         <v>21</v>
@@ -2038,28 +2029,28 @@
         <v>16</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>23</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="Q24" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2106,7 +2097,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -2116,12 +2107,12 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -2144,7 +2135,7 @@
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
       <c r="J8" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -2185,7 +2176,7 @@
         <v>74</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>75</v>
@@ -2197,7 +2188,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>77</v>
@@ -2229,7 +2220,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>77</v>
@@ -2261,10 +2252,10 @@
     </row>
     <row r="13" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>77</v>
@@ -2285,7 +2276,7 @@
         <v>77</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>77</v>
@@ -2317,7 +2308,7 @@
         <v>82</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>77</v>
@@ -2325,7 +2316,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>77</v>
@@ -2357,7 +2348,7 @@
     </row>
     <row r="16" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>78</v>
@@ -2381,7 +2372,7 @@
         <v>84</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>77</v>
@@ -2389,7 +2380,7 @@
     </row>
     <row r="17" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>78</v>
@@ -2413,7 +2404,7 @@
         <v>88</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>77</v>
@@ -2421,7 +2412,7 @@
     </row>
     <row r="18" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>77</v>
@@ -2477,7 +2468,7 @@
         <v>90</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>77</v>
@@ -2485,7 +2476,7 @@
     </row>
     <row r="20" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>77</v>
@@ -2512,12 +2503,12 @@
         <v>77</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>78</v>
@@ -2535,13 +2526,13 @@
         <v>79</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>77</v>
@@ -2549,7 +2540,7 @@
     </row>
     <row r="22" spans="1:10" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>78</v>
@@ -2567,13 +2558,13 @@
         <v>78</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>84</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>77</v>
@@ -2581,7 +2572,7 @@
     </row>
     <row r="23" spans="1:10" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>78</v>
@@ -2599,13 +2590,13 @@
         <v>78</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H23" s="3">
         <v>275</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>77</v>
@@ -2648,7 +2639,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2665,12 +2656,12 @@
         <v>93</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>99</v>
@@ -2687,7 +2678,7 @@
     </row>
     <row r="5" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>100</v>
@@ -2704,10 +2695,10 @@
     </row>
     <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>96</v>
@@ -2738,7 +2729,7 @@
     </row>
     <row r="8" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>101</v>
@@ -2755,10 +2746,10 @@
     </row>
     <row r="9" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>95</v>
@@ -2772,7 +2763,7 @@
     </row>
     <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>97</v>
@@ -2789,7 +2780,7 @@
     </row>
     <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>99</v>
@@ -2823,7 +2814,7 @@
     </row>
     <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>97</v>
@@ -2840,7 +2831,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>97</v>
@@ -2857,10 +2848,10 @@
     </row>
     <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>96</v>
@@ -2874,13 +2865,13 @@
     </row>
     <row r="16" spans="1:5" s="23" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="23" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D16" s="15">
         <v>453</v>

--- a/docs/Supplementary Tables.xlsx
+++ b/docs/Supplementary Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efrat\Documents\GitHub\microbiome-metabolome-curated-data\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152BF305-E614-4FAF-B43A-363C84840C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4085B739-06B1-4D5C-ACD7-71E58E727CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C58E8523-33F6-4E0C-953F-5B6F4D40C8B0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{C58E8523-33F6-4E0C-953F-5B6F4D40C8B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="1" r:id="rId1"/>
@@ -394,15 +394,9 @@
     <t>No, BURST-based species-level taxonomy was used instead</t>
   </si>
   <si>
-    <t>Raw 16S data was unavailable (processed data was used instead).</t>
-  </si>
-  <si>
     <t>No, QIIME-based genus-level taxonomy was used instead</t>
   </si>
   <si>
-    <t>OTU clustering and alignment to IMG/GG GreenGenes genomes (QIIME)</t>
-  </si>
-  <si>
     <t>Trained a NB classifier (QIIME2)</t>
   </si>
   <si>
@@ -632,13 +626,19 @@
   </si>
   <si>
     <t>Control subjects are shared with YACHIDA_CRC study (a column indicating which subjects exactly was added to the metadata)</t>
+  </si>
+  <si>
+    <t>Raw 16S data was unavailable (processed data was used instead, and taxonomy mapped to GTDB only when mapping was confident).</t>
+  </si>
+  <si>
+    <t>OTU clustering and alignment with QIIME1 (in original study). Mapping to GTDB where confident.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -673,13 +673,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -721,6 +714,21 @@
       <charset val="177"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -753,9 +761,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -785,26 +793,23 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -814,13 +819,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -833,6 +835,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1162,35 +1176,35 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="B3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="B4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="21" t="s">
-        <v>141</v>
-      </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="20"/>
+      <c r="A6" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1201,8 +1215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57439337-C632-449F-95CC-9CA24940408D}">
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="11" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="11" topLeftCell="J12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
       <selection pane="bottomRight" activeCell="R15" sqref="R15"/>
@@ -1231,75 +1245,75 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
-        <v>191</v>
-      </c>
-    </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
-        <v>192</v>
+      <c r="A5" s="12" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
-        <v>195</v>
+      <c r="A6" s="12" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26" t="s">
+      <c r="D10" s="24"/>
+      <c r="E10" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26" t="s">
+      <c r="F10" s="24"/>
+      <c r="G10" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26" t="s">
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="25" t="s">
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="Q10" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="R10" s="25" t="s">
+      <c r="Q10" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="R10" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="58" x14ac:dyDescent="0.35">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1313,7 +1327,7 @@
         <v>9</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>10</v>
@@ -1322,10 +1336,10 @@
         <v>11</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>12</v>
@@ -1339,31 +1353,31 @@
       <c r="O11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
     </row>
     <row r="12" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B12" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="11">
         <v>127</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="11">
         <v>220</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="11">
         <v>127</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <v>220</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>15</v>
@@ -1377,7 +1391,7 @@
       <c r="K12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="12" t="s">
+      <c r="L12" s="11" t="s">
         <v>116</v>
       </c>
       <c r="M12" s="4" t="s">
@@ -1396,30 +1410,30 @@
         <v>21</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B13" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>56</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="11">
         <v>157</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="11">
         <v>56</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <v>157</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>15</v>
@@ -1433,7 +1447,7 @@
       <c r="K13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="12" t="s">
+      <c r="L13" s="11" t="s">
         <v>115</v>
       </c>
       <c r="M13" s="4" t="s">
@@ -1452,23 +1466,23 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B14" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <v>89</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="11">
         <v>42</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="11">
         <v>89</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <v>42</v>
       </c>
       <c r="G14" s="3" t="s">
@@ -1486,7 +1500,7 @@
       <c r="K14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L14" s="12" t="s">
+      <c r="L14" s="11" t="s">
         <v>20</v>
       </c>
       <c r="M14" s="4" t="s">
@@ -1502,17 +1516,17 @@
         <v>20</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>118</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B15" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="17" t="s">
         <v>108</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -1542,7 +1556,7 @@
       <c r="K15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L15" s="12" t="s">
+      <c r="L15" s="11" t="s">
         <v>35</v>
       </c>
       <c r="M15" s="4" t="s">
@@ -1558,30 +1572,30 @@
         <v>35</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B16" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <v>26</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="11">
         <v>79</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="11">
         <v>72</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="11">
         <v>212</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>36</v>
@@ -1595,7 +1609,7 @@
       <c r="K16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L16" s="12" t="s">
+      <c r="L16" s="11" t="s">
         <v>37</v>
       </c>
       <c r="M16" s="4" t="s">
@@ -1614,26 +1628,26 @@
         <v>39</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B17" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <v>54</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="11">
         <v>54</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="11" t="s">
         <v>27</v>
       </c>
       <c r="G17" s="3" t="s">
@@ -1651,7 +1665,7 @@
       <c r="K17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L17" s="12" t="s">
+      <c r="L17" s="11" t="s">
         <v>112</v>
       </c>
       <c r="M17" s="4" t="s">
@@ -1660,7 +1674,7 @@
       <c r="N17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O17" s="18" t="s">
+      <c r="O17" s="17" t="s">
         <v>34</v>
       </c>
       <c r="P17" s="4" t="s">
@@ -1675,28 +1689,28 @@
     </row>
     <row r="18" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B18" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="B18" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="11">
         <v>83</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="11">
         <v>141</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="11" t="s">
         <v>27</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>16</v>
@@ -1705,9 +1719,9 @@
         <v>22</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="L18" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="L18" s="11" t="s">
         <v>113</v>
       </c>
       <c r="M18" s="4" t="s">
@@ -1716,7 +1730,7 @@
       <c r="N18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="O18" s="12" t="s">
+      <c r="O18" s="11" t="s">
         <v>114</v>
       </c>
       <c r="P18" s="4" t="s">
@@ -1731,25 +1745,25 @@
     </row>
     <row r="19" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="C19" s="12">
+        <v>144</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" s="11">
         <v>54</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="11">
         <v>42</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="11">
         <v>54</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="11">
         <v>42</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>15</v>
@@ -1772,36 +1786,36 @@
       <c r="N19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O19" s="18" t="s">
+      <c r="O19" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="P19" s="18" t="s">
+      <c r="P19" s="17" t="s">
         <v>34</v>
       </c>
       <c r="Q19" s="4" t="s">
         <v>49</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C20" s="12">
+      <c r="B20" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="11">
         <v>102</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="11">
         <v>138</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="11">
         <v>102</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="11">
         <v>138</v>
       </c>
       <c r="G20" s="3" t="s">
@@ -1835,30 +1849,30 @@
         <v>20</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="11">
         <v>24</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="11">
         <v>51</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="11">
         <v>70</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="11">
         <v>143</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>54</v>
@@ -1872,7 +1886,7 @@
       <c r="K21" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="L21" s="12" t="s">
+      <c r="L21" s="11" t="s">
         <v>56</v>
       </c>
       <c r="M21" s="4" t="s">
@@ -1891,15 +1905,15 @@
         <v>58</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C22" s="4">
         <v>21</v>
@@ -1914,10 +1928,10 @@
         <v>23</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>27</v>
@@ -1926,7 +1940,7 @@
         <v>27</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>34</v>
@@ -1935,7 +1949,7 @@
         <v>18</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O22" s="4" t="s">
         <v>20</v>
@@ -1944,15 +1958,15 @@
         <v>20</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C23" s="4">
         <v>8</v>
@@ -1976,13 +1990,13 @@
         <v>16</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="L23" s="24" t="s">
-        <v>173</v>
+        <v>166</v>
+      </c>
+      <c r="L23" s="22" t="s">
+        <v>171</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>23</v>
@@ -1990,22 +2004,22 @@
       <c r="N23" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="O23" s="18" t="s">
+      <c r="O23" s="17" t="s">
         <v>34</v>
       </c>
       <c r="P23" s="4" t="s">
         <v>20</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C24" s="4">
         <v>21</v>
@@ -2029,28 +2043,28 @@
         <v>16</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>23</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Q24" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2077,11 +2091,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6614462A-48C8-42E0-BE6C-65302361CC63}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
+      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2097,72 +2111,72 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
-        <v>127</v>
+      <c r="A4" s="13" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
-        <v>122</v>
+      <c r="A5" s="13" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
       <c r="J8" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="27"/>
-      <c r="B9" s="28" t="s">
+      <c r="A9" s="25"/>
+      <c r="B9" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28" t="s">
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="22" t="s">
+      <c r="H9" s="26"/>
+      <c r="I9" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="J9" s="24" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="27"/>
-      <c r="B10" s="28"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="10" t="s">
         <v>71</v>
       </c>
@@ -2176,19 +2190,19 @@
         <v>74</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="J10" s="26"/>
+      <c r="J10" s="24"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>77</v>
@@ -2211,7 +2225,7 @@
       <c r="H11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J11" s="7" t="s">
@@ -2220,7 +2234,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>77</v>
@@ -2243,7 +2257,7 @@
       <c r="H12" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J12" s="7" t="s">
@@ -2252,10 +2266,10 @@
     </row>
     <row r="13" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>77</v>
@@ -2275,8 +2289,8 @@
       <c r="H13" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="I13" s="9" t="s">
-        <v>120</v>
+      <c r="I13" s="30" t="s">
+        <v>197</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>77</v>
@@ -2307,8 +2321,8 @@
       <c r="H14" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="I14" s="7" t="s">
-        <v>121</v>
+      <c r="I14" s="29" t="s">
+        <v>119</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>77</v>
@@ -2316,7 +2330,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>77</v>
@@ -2339,7 +2353,7 @@
       <c r="H15" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J15" s="7" t="s">
@@ -2348,7 +2362,7 @@
     </row>
     <row r="16" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>78</v>
@@ -2371,8 +2385,8 @@
       <c r="H16" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="I16" s="7" t="s">
-        <v>121</v>
+      <c r="I16" s="29" t="s">
+        <v>119</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>77</v>
@@ -2380,7 +2394,7 @@
     </row>
     <row r="17" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>78</v>
@@ -2403,8 +2417,8 @@
       <c r="H17" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="I17" s="7" t="s">
-        <v>121</v>
+      <c r="I17" s="29" t="s">
+        <v>119</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>77</v>
@@ -2412,7 +2426,7 @@
     </row>
     <row r="18" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>77</v>
@@ -2435,7 +2449,7 @@
       <c r="H18" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J18" s="7" t="s">
@@ -2467,8 +2481,8 @@
       <c r="H19" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="I19" s="7" t="s">
-        <v>121</v>
+      <c r="I19" s="29" t="s">
+        <v>119</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>77</v>
@@ -2476,7 +2490,7 @@
     </row>
     <row r="20" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>77</v>
@@ -2499,7 +2513,7 @@
       <c r="H20" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J20" s="9" t="s">
@@ -2508,7 +2522,7 @@
     </row>
     <row r="21" spans="1:10" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>78</v>
@@ -2526,13 +2540,13 @@
         <v>79</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>121</v>
+        <v>165</v>
+      </c>
+      <c r="I21" s="29" t="s">
+        <v>119</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>77</v>
@@ -2540,7 +2554,7 @@
     </row>
     <row r="22" spans="1:10" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>78</v>
@@ -2558,13 +2572,13 @@
         <v>78</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="I22" s="7" t="s">
-        <v>121</v>
+      <c r="I22" s="29" t="s">
+        <v>119</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>77</v>
@@ -2572,7 +2586,7 @@
     </row>
     <row r="23" spans="1:10" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>78</v>
@@ -2590,13 +2604,13 @@
         <v>78</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H23" s="3">
         <v>275</v>
       </c>
-      <c r="I23" s="7" t="s">
-        <v>121</v>
+      <c r="I23" s="29" t="s">
+        <v>119</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>77</v>
@@ -2639,7 +2653,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2656,57 +2670,57 @@
         <v>93</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B4" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <v>450</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14">
         <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B5" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>8848</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>530</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <v>352</v>
       </c>
     </row>
@@ -2714,84 +2728,84 @@
       <c r="A7" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>120</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B8" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <v>81867</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="14">
         <v>455</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="C9" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <v>4626</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="14">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B10" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="14">
         <v>489</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="14">
         <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B11" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="15">
         <v>524</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="14">
         <v>462</v>
       </c>
     </row>
@@ -2799,84 +2813,84 @@
       <c r="A12" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="15">
         <v>462</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="14">
         <v>358</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B13" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="14">
         <v>43</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="14">
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B14" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B14" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="14">
         <v>61</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="14">
         <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="C15" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="14">
         <v>184</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="14">
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="23" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="D16" s="15">
+    <row r="16" spans="1:5" s="21" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="D16" s="14">
         <v>453</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="14">
         <v>198</v>
       </c>
     </row>

--- a/docs/Supplementary Tables.xlsx
+++ b/docs/Supplementary Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efrat\Documents\GitHub\microbiome-metabolome-curated-data\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4085B739-06B1-4D5C-ACD7-71E58E727CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0359DE25-E4A5-4A05-9424-548FBDB60D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{C58E8523-33F6-4E0C-953F-5B6F4D40C8B0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C58E8523-33F6-4E0C-953F-5B6F4D40C8B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="197">
   <si>
     <t>Dataset ID (1)</t>
   </si>
@@ -247,9 +247,6 @@
   </si>
   <si>
     <t>Taxonomy annotation</t>
-  </si>
-  <si>
-    <t>Metaphlan2 table available</t>
   </si>
   <si>
     <t>Demultiplexed (1)</t>
@@ -391,15 +388,9 @@
     <t>DDBJ Sequence Read Archive DRA006684 and DRA008156 / Paper SI</t>
   </si>
   <si>
-    <t>No, BURST-based species-level taxonomy was used instead</t>
-  </si>
-  <si>
     <t>No, QIIME-based genus-level taxonomy was used instead</t>
   </si>
   <si>
-    <t>Trained a NB classifier (QIIME2)</t>
-  </si>
-  <si>
     <t>(3) ‘Left trimming’ is the number of nt’s trimmed from the beginning of each sequence in order to remove primers/adapters;</t>
   </si>
   <si>
@@ -631,7 +622,13 @@
     <t>Raw 16S data was unavailable (processed data was used instead, and taxonomy mapped to GTDB only when mapping was confident).</t>
   </si>
   <si>
-    <t>OTU clustering and alignment with QIIME1 (in original study). Mapping to GTDB where confident.</t>
+    <t>OTU clustering and alignment with QIIME1 (in original study). Mapping to GTDB.</t>
+  </si>
+  <si>
+    <t>assignTaxonomy function (DADA2 R package) with a GTDB reference database</t>
+  </si>
+  <si>
+    <t>TBC</t>
   </si>
 </sst>
 </file>
@@ -723,8 +720,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -763,7 +760,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -825,6 +822,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -837,17 +837,21 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1166,7 +1170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{847F1507-5CF3-4099-A5F0-0BA103DB973E}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1176,31 +1180,31 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="19" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -1216,10 +1220,10 @@
   <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="11" topLeftCell="J12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="11" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="R15" sqref="R15"/>
+      <selection pane="bottomRight" activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1245,7 +1249,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
@@ -1255,65 +1259,65 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24" t="s">
+      <c r="D10" s="25"/>
+      <c r="E10" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24" t="s">
+      <c r="F10" s="25"/>
+      <c r="G10" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24" t="s">
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="23" t="s">
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="Q10" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="R10" s="23" t="s">
+      <c r="Q10" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="R10" s="24" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="58" x14ac:dyDescent="0.35">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1327,7 +1331,7 @@
         <v>9</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>10</v>
@@ -1336,10 +1340,10 @@
         <v>11</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>12</v>
@@ -1353,16 +1357,16 @@
       <c r="O11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
     </row>
     <row r="12" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C12" s="11">
         <v>127</v>
@@ -1377,7 +1381,7 @@
         <v>220</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>15</v>
@@ -1392,7 +1396,7 @@
         <v>17</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>18</v>
@@ -1410,15 +1414,15 @@
         <v>21</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C13" s="11">
         <v>56</v>
@@ -1433,7 +1437,7 @@
         <v>157</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>15</v>
@@ -1448,7 +1452,7 @@
         <v>27</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>23</v>
@@ -1468,10 +1472,10 @@
     </row>
     <row r="14" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C14" s="11">
         <v>89</v>
@@ -1516,21 +1520,21 @@
         <v>20</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B15" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>27</v>
@@ -1572,15 +1576,15 @@
         <v>35</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16" s="11">
         <v>26</v>
@@ -1595,7 +1599,7 @@
         <v>212</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>36</v>
@@ -1628,15 +1632,15 @@
         <v>39</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C17" s="11">
         <v>54</v>
@@ -1666,7 +1670,7 @@
         <v>42</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>23</v>
@@ -1684,12 +1688,12 @@
         <v>44</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>45</v>
@@ -1707,10 +1711,10 @@
         <v>27</v>
       </c>
       <c r="G18" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>16</v>
@@ -1719,10 +1723,10 @@
         <v>22</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>23</v>
@@ -1731,7 +1735,7 @@
         <v>38</v>
       </c>
       <c r="O18" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>20</v>
@@ -1740,15 +1744,15 @@
         <v>46</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C19" s="11">
         <v>54</v>
@@ -1763,7 +1767,7 @@
         <v>42</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>15</v>
@@ -1796,7 +1800,7 @@
         <v>49</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="58" x14ac:dyDescent="0.35">
@@ -1804,7 +1808,7 @@
         <v>61</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C20" s="11">
         <v>102</v>
@@ -1849,15 +1853,15 @@
         <v>20</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C21" s="11">
         <v>24</v>
@@ -1872,7 +1876,7 @@
         <v>143</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>54</v>
@@ -1905,15 +1909,15 @@
         <v>58</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="C22" s="4">
         <v>21</v>
@@ -1928,10 +1932,10 @@
         <v>23</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>27</v>
@@ -1940,7 +1944,7 @@
         <v>27</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>34</v>
@@ -1949,7 +1953,7 @@
         <v>18</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="O22" s="4" t="s">
         <v>20</v>
@@ -1958,15 +1962,15 @@
         <v>20</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C23" s="4">
         <v>8</v>
@@ -1990,13 +1994,13 @@
         <v>16</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L23" s="22" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>23</v>
@@ -2011,15 +2015,15 @@
         <v>20</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C24" s="4">
         <v>21</v>
@@ -2043,28 +2047,28 @@
         <v>16</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>23</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q24" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -2089,510 +2093,562 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6614462A-48C8-42E0-BE6C-65302361CC63}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomRight" activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="28.453125" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" customWidth="1"/>
     <col min="3" max="6" width="17.36328125" customWidth="1"/>
     <col min="7" max="7" width="24.90625" customWidth="1"/>
     <col min="8" max="8" width="10.6328125" customWidth="1"/>
-    <col min="9" max="9" width="25.6328125" customWidth="1"/>
+    <col min="9" max="9" width="34.26953125" style="28" customWidth="1"/>
     <col min="10" max="10" width="26.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="25" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26" t="s">
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="26"/>
+      <c r="B9" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26" t="s">
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="27" t="s">
+      <c r="H9" s="27"/>
+      <c r="I9" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="J9" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+    </row>
+    <row r="10" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="26"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="10" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="10" t="s">
+      <c r="D10" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="E10" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="F10" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="G10" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="H10" s="10" t="s">
+      <c r="I10" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="I10" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="J10" s="24"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J10" s="27"/>
+      <c r="K10" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="L10" s="23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="7" t="s">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I11" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I12" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I13" s="30" t="s">
-        <v>197</v>
+        <v>76</v>
+      </c>
+      <c r="I13" s="31" t="s">
+        <v>194</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>60</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="7">
         <v>292</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="I14" s="29" t="s">
-        <v>119</v>
+      <c r="I14" s="16" t="s">
+        <v>195</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B15" s="7" t="s">
+    <row r="16" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="I15" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="J15" s="7" t="s">
+      <c r="C16" s="7" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="D16" s="7">
         <v>101</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="I16" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="I16" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="E17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="H17" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="I17" s="29" t="s">
-        <v>119</v>
+      <c r="I17" s="16" t="s">
+        <v>195</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="I18" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>61</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="D19" s="7">
         <v>231</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G19" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="H19" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="I19" s="29" t="s">
-        <v>119</v>
+      <c r="I19" s="16" t="s">
+        <v>195</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B20" s="7" t="s">
+    <row r="21" spans="1:12" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C21" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="I20" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="D21" s="3">
         <v>250</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="I21" s="29" t="s">
-        <v>119</v>
+        <v>162</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>195</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B22" s="7" t="s">
+      <c r="C22" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="D22" s="3">
         <v>173</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F22" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="I22" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="D23" s="3">
         <v>140</v>
@@ -2601,30 +2657,40 @@
         <v>18</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H23" s="3">
         <v>275</v>
       </c>
-      <c r="I23" s="29" t="s">
-        <v>119</v>
+      <c r="I23" s="16" t="s">
+        <v>195</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+        <v>76</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I24" s="32"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B8:I8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="G9:H9"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="K9:L9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
@@ -2639,7 +2705,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2653,7 +2719,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2661,27 +2727,27 @@
         <v>64</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>93</v>
-      </c>
       <c r="E3" s="10" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4" s="14">
         <v>450</v>
@@ -2692,13 +2758,13 @@
     </row>
     <row r="5" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" s="14">
         <v>8848</v>
@@ -2709,13 +2775,13 @@
     </row>
     <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" s="14">
         <v>530</v>
@@ -2729,10 +2795,10 @@
         <v>60</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D7" s="14">
         <v>120</v>
@@ -2743,13 +2809,13 @@
     </row>
     <row r="8" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B8" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>101</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>102</v>
       </c>
       <c r="D8" s="14">
         <v>81867</v>
@@ -2760,13 +2826,13 @@
     </row>
     <row r="9" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D9" s="14">
         <v>4626</v>
@@ -2777,13 +2843,13 @@
     </row>
     <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D10" s="14">
         <v>489</v>
@@ -2794,13 +2860,13 @@
     </row>
     <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D11" s="15">
         <v>524</v>
@@ -2814,10 +2880,10 @@
         <v>61</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D12" s="15">
         <v>462</v>
@@ -2828,13 +2894,13 @@
     </row>
     <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D13" s="14">
         <v>43</v>
@@ -2845,13 +2911,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D14" s="14">
         <v>61</v>
@@ -2862,13 +2928,13 @@
     </row>
     <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D15" s="14">
         <v>184</v>
@@ -2879,13 +2945,13 @@
     </row>
     <row r="16" spans="1:5" s="21" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="21" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D16" s="14">
         <v>453</v>

--- a/docs/Supplementary Tables.xlsx
+++ b/docs/Supplementary Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efrat\Documents\GitHub\microbiome-metabolome-curated-data\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0359DE25-E4A5-4A05-9424-548FBDB60D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FB04B5-2F5C-408D-925C-8984DA83A87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C58E8523-33F6-4E0C-953F-5B6F4D40C8B0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{C58E8523-33F6-4E0C-953F-5B6F4D40C8B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="194">
   <si>
     <t>Dataset ID (1)</t>
   </si>
@@ -331,9 +331,6 @@
     <t>Metabolites were identified by name only.</t>
   </si>
   <si>
-    <t>Cases were excluded as there were less than 40.</t>
-  </si>
-  <si>
     <t>Metabolites were identified by name and most also had KEGG ID's.</t>
   </si>
   <si>
@@ -349,9 +346,6 @@
     <t>Longitudinal samples (over 6 months) from patients with Irritable Bowel Syndrome and controls.</t>
   </si>
   <si>
-    <t>Inflammatory bowel disease patients and their first degree relatives of patients with IBD.</t>
-  </si>
-  <si>
     <t>Patients who underwent colonoscopy, with findings from normal to stage 4 colorectal cancer.</t>
   </si>
   <si>
@@ -364,9 +358,6 @@
     <t>Infants over several time points during the 1st year of life, either breast-fed, formula-fed, or experimental formula fed.</t>
   </si>
   <si>
-    <t>68 (see comments)</t>
-  </si>
-  <si>
     <t>HMP2 (integrative HMP) cohort: Inflammatory bowel disease patients who were profiled several times over the course of a year.</t>
   </si>
   <si>
@@ -517,9 +508,6 @@
     <t>16S V2-V3</t>
   </si>
   <si>
-    <t>FLX-Titanium (454)</t>
-  </si>
-  <si>
     <t>41K</t>
   </si>
   <si>
@@ -538,9 +526,6 @@
     <t>46K</t>
   </si>
   <si>
-    <t>Children at risk for T1D, from the DIABIMMUNE cohort</t>
-  </si>
-  <si>
     <t>2 X 175</t>
   </si>
   <si>
@@ -629,6 +614,12 @@
   </si>
   <si>
     <t>TBC</t>
+  </si>
+  <si>
+    <t>Inflammatory bowel disease patients and their first degree (healthy) relatives.</t>
+  </si>
+  <si>
+    <t>Longitudinal samples from children at risk for T1D (DIABIMMUNE cohort).</t>
   </si>
 </sst>
 </file>
@@ -825,18 +816,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -849,6 +828,18 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1170,7 +1161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{847F1507-5CF3-4099-A5F0-0BA103DB973E}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1180,31 +1171,31 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="19" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -1220,10 +1211,10 @@
   <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="11" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="11" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="Q14" sqref="Q14"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1249,7 +1240,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
@@ -1259,65 +1250,65 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25" t="s">
+      <c r="D10" s="30"/>
+      <c r="E10" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25" t="s">
+      <c r="F10" s="30"/>
+      <c r="G10" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25" t="s">
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="24" t="s">
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="Q10" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="R10" s="24" t="s">
+      <c r="Q10" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="R10" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="58" x14ac:dyDescent="0.35">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1331,7 +1322,7 @@
         <v>9</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>10</v>
@@ -1340,10 +1331,10 @@
         <v>11</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>12</v>
@@ -1357,16 +1348,16 @@
       <c r="O11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
     </row>
     <row r="12" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C12" s="11">
         <v>127</v>
@@ -1381,7 +1372,7 @@
         <v>220</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>15</v>
@@ -1396,7 +1387,7 @@
         <v>17</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>18</v>
@@ -1414,15 +1405,15 @@
         <v>21</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C13" s="11">
         <v>56</v>
@@ -1437,7 +1428,7 @@
         <v>157</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>15</v>
@@ -1452,7 +1443,7 @@
         <v>27</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>23</v>
@@ -1472,10 +1463,10 @@
     </row>
     <row r="14" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C14" s="11">
         <v>89</v>
@@ -1520,27 +1511,27 @@
         <v>20</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
+      </c>
+      <c r="C15" s="4">
+        <v>80</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E15" s="4">
-        <v>68</v>
+        <v>277</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>27</v>
@@ -1576,15 +1567,15 @@
         <v>35</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C16" s="11">
         <v>26</v>
@@ -1593,13 +1584,13 @@
         <v>79</v>
       </c>
       <c r="E16" s="11">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="F16" s="11">
-        <v>212</v>
+        <v>286</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>36</v>
@@ -1632,27 +1623,27 @@
         <v>39</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="58" x14ac:dyDescent="0.35">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>103</v>
+        <v>192</v>
       </c>
       <c r="C17" s="11">
         <v>54</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>27</v>
+      <c r="D17" s="11">
+        <v>36</v>
       </c>
       <c r="E17" s="11">
         <v>54</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>27</v>
+      <c r="F17" s="11">
+        <v>36</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>30</v>
@@ -1670,7 +1661,7 @@
         <v>42</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>23</v>
@@ -1687,13 +1678,10 @@
       <c r="Q17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="R17" s="4" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="18" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>45</v>
@@ -1705,16 +1693,16 @@
         <v>27</v>
       </c>
       <c r="E18" s="11">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>27</v>
       </c>
       <c r="G18" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>130</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>16</v>
@@ -1723,10 +1711,10 @@
         <v>22</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>23</v>
@@ -1735,7 +1723,7 @@
         <v>38</v>
       </c>
       <c r="O18" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>20</v>
@@ -1744,15 +1732,15 @@
         <v>46</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C19" s="11">
         <v>54</v>
@@ -1767,7 +1755,7 @@
         <v>42</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>15</v>
@@ -1800,7 +1788,7 @@
         <v>49</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="58" x14ac:dyDescent="0.35">
@@ -1808,7 +1796,7 @@
         <v>61</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C20" s="11">
         <v>102</v>
@@ -1853,15 +1841,15 @@
         <v>20</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C21" s="11">
         <v>24</v>
@@ -1870,13 +1858,13 @@
         <v>51</v>
       </c>
       <c r="E21" s="11">
-        <v>70</v>
+        <v>142</v>
       </c>
       <c r="F21" s="11">
-        <v>143</v>
+        <v>313</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>54</v>
@@ -1909,15 +1897,15 @@
         <v>58</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="C22" s="4">
         <v>21</v>
@@ -1932,10 +1920,10 @@
         <v>23</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
+      </c>
+      <c r="H22" s="3">
+        <v>454</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>27</v>
@@ -1944,7 +1932,7 @@
         <v>27</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>34</v>
@@ -1953,7 +1941,7 @@
         <v>18</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O22" s="4" t="s">
         <v>20</v>
@@ -1962,15 +1950,15 @@
         <v>20</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="C23" s="4">
         <v>8</v>
@@ -1994,13 +1982,13 @@
         <v>16</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="K23" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="L23" s="22" t="s">
         <v>163</v>
-      </c>
-      <c r="L23" s="22" t="s">
-        <v>168</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>23</v>
@@ -2015,15 +2003,15 @@
         <v>20</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C24" s="4">
         <v>21</v>
@@ -2047,28 +2035,28 @@
         <v>16</v>
       </c>
       <c r="J24" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="L24" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>23</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="Q24" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2095,11 +2083,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6614462A-48C8-42E0-BE6C-65302361CC63}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="N19" sqref="N19"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2109,13 +2097,13 @@
     <col min="3" max="6" width="17.36328125" customWidth="1"/>
     <col min="7" max="7" width="24.90625" customWidth="1"/>
     <col min="8" max="8" width="10.6328125" customWidth="1"/>
-    <col min="9" max="9" width="34.26953125" style="28" customWidth="1"/>
+    <col min="9" max="9" width="34.26953125" style="24" customWidth="1"/>
     <col min="10" max="10" width="26.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -2125,12 +2113,12 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -2139,52 +2127,52 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="26"/>
-      <c r="B9" s="27" t="s">
+      <c r="A9" s="32"/>
+      <c r="B9" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27" t="s">
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="H9" s="27"/>
-      <c r="I9" s="29" t="s">
+      <c r="H9" s="31"/>
+      <c r="I9" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="J9" s="27" t="s">
+      <c r="J9" s="31" t="s">
         <v>66</v>
       </c>
       <c r="K9" s="33"/>
       <c r="L9" s="33"/>
     </row>
     <row r="10" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="26"/>
-      <c r="B10" s="27"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="10" t="s">
         <v>70</v>
       </c>
@@ -2198,25 +2186,25 @@
         <v>73</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="I10" s="30" t="s">
+      <c r="I10" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="J10" s="27"/>
+      <c r="J10" s="31"/>
       <c r="K10" s="23" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="L10" s="23" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>76</v>
@@ -2248,7 +2236,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>76</v>
@@ -2280,10 +2268,10 @@
     </row>
     <row r="13" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>76</v>
@@ -2303,8 +2291,8 @@
       <c r="H13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="I13" s="31" t="s">
-        <v>194</v>
+      <c r="I13" s="27" t="s">
+        <v>189</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>76</v>
@@ -2342,7 +2330,7 @@
         <v>81</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>76</v>
@@ -2356,7 +2344,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>76</v>
@@ -2388,7 +2376,7 @@
     </row>
     <row r="16" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>77</v>
@@ -2412,7 +2400,7 @@
         <v>83</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>76</v>
@@ -2426,7 +2414,7 @@
     </row>
     <row r="17" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>77</v>
@@ -2450,7 +2438,7 @@
         <v>87</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>76</v>
@@ -2464,7 +2452,7 @@
     </row>
     <row r="18" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>76</v>
@@ -2520,7 +2508,7 @@
         <v>89</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>76</v>
@@ -2534,7 +2522,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>76</v>
@@ -2566,7 +2554,7 @@
     </row>
     <row r="21" spans="1:12" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>77</v>
@@ -2584,13 +2572,13 @@
         <v>78</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>76</v>
@@ -2604,7 +2592,7 @@
     </row>
     <row r="22" spans="1:12" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>77</v>
@@ -2622,13 +2610,13 @@
         <v>77</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>83</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>76</v>
@@ -2642,7 +2630,7 @@
     </row>
     <row r="23" spans="1:12" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>77</v>
@@ -2660,13 +2648,13 @@
         <v>77</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H23" s="3">
         <v>275</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>76</v>
@@ -2679,7 +2667,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="I24" s="32"/>
+      <c r="I24" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2719,7 +2707,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2736,15 +2724,15 @@
         <v>92</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>93</v>
@@ -2758,10 +2746,10 @@
     </row>
     <row r="5" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>94</v>
@@ -2775,10 +2763,10 @@
     </row>
     <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>95</v>
@@ -2809,13 +2797,13 @@
     </row>
     <row r="8" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B8" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>100</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>101</v>
       </c>
       <c r="D8" s="14">
         <v>81867</v>
@@ -2824,12 +2812,12 @@
         <v>455</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>94</v>
@@ -2843,7 +2831,7 @@
     </row>
     <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>96</v>
@@ -2860,10 +2848,10 @@
     </row>
     <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>93</v>
@@ -2894,7 +2882,7 @@
     </row>
     <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>96</v>
@@ -2911,7 +2899,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>96</v>
@@ -2928,10 +2916,10 @@
     </row>
     <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>95</v>
@@ -2945,13 +2933,13 @@
     </row>
     <row r="16" spans="1:5" s="21" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="21" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D16" s="14">
         <v>453</v>

--- a/docs/Supplementary Tables.xlsx
+++ b/docs/Supplementary Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efrat\Documents\GitHub\microbiome-metabolome-curated-data\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FB04B5-2F5C-408D-925C-8984DA83A87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4049DD9B-05E3-4885-AA68-081DE56661DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{C58E8523-33F6-4E0C-953F-5B6F4D40C8B0}"/>
+    <workbookView xWindow="24675" yWindow="10275" windowWidth="9600" windowHeight="4905" activeTab="1" xr2:uid="{C58E8523-33F6-4E0C-953F-5B6F4D40C8B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="196">
   <si>
     <t>Dataset ID (1)</t>
   </si>
@@ -376,9 +376,6 @@
     <t>NCBI BioProject ID PRJNA400072 / Paper SI</t>
   </si>
   <si>
-    <t>DDBJ Sequence Read Archive DRA006684 and DRA008156 / Paper SI</t>
-  </si>
-  <si>
     <t>No, QIIME-based genus-level taxonomy was used instead</t>
   </si>
   <si>
@@ -620,13 +617,22 @@
   </si>
   <si>
     <t>Longitudinal samples from children at risk for T1D (DIABIMMUNE cohort).</t>
+  </si>
+  <si>
+    <t>DDBJ Sequence Read Archive DRA006684 and DRA008156 / Paper SI /  NCBI BioProject PRJDB4176</t>
+  </si>
+  <si>
+    <t>Paper SI / NCBI BioProject ID PRJDB7378 and PRJDB4176</t>
+  </si>
+  <si>
+    <t>Mendeley (https://doi.org/10.17632/29n2z5r5ph.3) / ENA PRJEB37924</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -717,6 +723,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -751,7 +771,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -843,6 +863,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1171,31 +1197,31 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -1210,11 +1236,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57439337-C632-449F-95CC-9CA24940408D}">
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="11" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="11" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12:A24"/>
+      <selection pane="bottomRight" activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1227,8 +1253,8 @@
     <col min="7" max="7" width="17.54296875" style="3" customWidth="1"/>
     <col min="8" max="8" width="19.26953125" style="3" customWidth="1"/>
     <col min="9" max="10" width="16" style="3" customWidth="1"/>
-    <col min="11" max="11" width="18.1796875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="24.7265625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="18.1796875" style="34" customWidth="1"/>
+    <col min="12" max="12" width="26.90625" style="4" customWidth="1"/>
     <col min="13" max="13" width="16.90625" style="4" customWidth="1"/>
     <col min="14" max="14" width="15.81640625" style="4" customWidth="1"/>
     <col min="15" max="15" width="18" style="4" customWidth="1"/>
@@ -1240,7 +1266,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
@@ -1250,22 +1276,22 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
-        <v>185</v>
+      <c r="A6" s="35" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
@@ -1300,7 +1326,7 @@
         <v>6</v>
       </c>
       <c r="Q10" s="29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R10" s="29" t="s">
         <v>7</v>
@@ -1322,7 +1348,7 @@
         <v>9</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>10</v>
@@ -1331,10 +1357,10 @@
         <v>11</v>
       </c>
       <c r="J11" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="K11" s="23" t="s">
         <v>183</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>12</v>
@@ -1354,7 +1380,7 @@
     </row>
     <row r="12" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>102</v>
@@ -1372,7 +1398,7 @@
         <v>220</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>15</v>
@@ -1383,11 +1409,11 @@
       <c r="J12" s="3">
         <v>150</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="34" t="s">
         <v>17</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>112</v>
+        <v>193</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>18</v>
@@ -1405,12 +1431,12 @@
         <v>21</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>103</v>
@@ -1428,7 +1454,7 @@
         <v>157</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>15</v>
@@ -1439,7 +1465,7 @@
       <c r="J13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="34" t="s">
         <v>27</v>
       </c>
       <c r="L13" s="11" t="s">
@@ -1463,7 +1489,7 @@
     </row>
     <row r="14" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>104</v>
@@ -1492,7 +1518,7 @@
       <c r="J14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="34" t="s">
         <v>28</v>
       </c>
       <c r="L14" s="11" t="s">
@@ -1511,15 +1537,15 @@
         <v>20</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>105</v>
@@ -1548,7 +1574,7 @@
       <c r="J15" s="3">
         <v>250</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="34" t="s">
         <v>32</v>
       </c>
       <c r="L15" s="11" t="s">
@@ -1567,12 +1593,12 @@
         <v>35</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>106</v>
@@ -1590,7 +1616,7 @@
         <v>286</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>36</v>
@@ -1601,7 +1627,7 @@
       <c r="J16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="34" t="s">
         <v>27</v>
       </c>
       <c r="L16" s="11" t="s">
@@ -1623,15 +1649,15 @@
         <v>39</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C17" s="11">
         <v>54</v>
@@ -1657,7 +1683,7 @@
       <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="34" t="s">
         <v>42</v>
       </c>
       <c r="L17" s="11" t="s">
@@ -1679,9 +1705,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="58" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>45</v>
@@ -1699,10 +1725,10 @@
         <v>27</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>16</v>
@@ -1710,8 +1736,8 @@
       <c r="J18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="4" t="s">
-        <v>128</v>
+      <c r="K18" s="34" t="s">
+        <v>127</v>
       </c>
       <c r="L18" s="11" t="s">
         <v>109</v>
@@ -1737,10 +1763,10 @@
     </row>
     <row r="19" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C19" s="11">
         <v>54</v>
@@ -1755,7 +1781,7 @@
         <v>42</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>15</v>
@@ -1766,11 +1792,11 @@
       <c r="J19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="34" t="s">
         <v>48</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>20</v>
+        <v>194</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>18</v>
@@ -1788,7 +1814,7 @@
         <v>49</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="58" x14ac:dyDescent="0.35">
@@ -1796,7 +1822,7 @@
         <v>61</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C20" s="11">
         <v>102</v>
@@ -1822,7 +1848,7 @@
       <c r="J20" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="K20" s="34" t="s">
         <v>52</v>
       </c>
       <c r="L20" s="4" t="s">
@@ -1841,12 +1867,12 @@
         <v>20</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>101</v>
@@ -1864,7 +1890,7 @@
         <v>313</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>54</v>
@@ -1875,11 +1901,11 @@
       <c r="J21" s="3">
         <v>100</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="K21" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="L21" s="11" t="s">
-        <v>56</v>
+      <c r="L21" s="4" t="s">
+        <v>195</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>18</v>
@@ -1897,15 +1923,15 @@
         <v>58</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C22" s="4">
         <v>21</v>
@@ -1920,7 +1946,7 @@
         <v>23</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H22" s="3">
         <v>454</v>
@@ -1931,8 +1957,8 @@
       <c r="J22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K22" s="4" t="s">
-        <v>156</v>
+      <c r="K22" s="34" t="s">
+        <v>155</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>34</v>
@@ -1941,7 +1967,7 @@
         <v>18</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O22" s="4" t="s">
         <v>20</v>
@@ -1950,15 +1976,15 @@
         <v>20</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C23" s="4">
         <v>8</v>
@@ -1982,13 +2008,13 @@
         <v>16</v>
       </c>
       <c r="J23" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K23" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="L23" s="22" t="s">
         <v>162</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="L23" s="22" t="s">
-        <v>163</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>23</v>
@@ -2003,15 +2029,15 @@
         <v>20</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C24" s="4">
         <v>21</v>
@@ -2035,28 +2061,28 @@
         <v>16</v>
       </c>
       <c r="J24" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="K24" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="K24" s="4" t="s">
-        <v>170</v>
-      </c>
       <c r="L24" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>23</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q24" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2083,11 +2109,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6614462A-48C8-42E0-BE6C-65302361CC63}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2103,7 +2129,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -2113,12 +2139,12 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -2141,7 +2167,7 @@
       <c r="H8" s="32"/>
       <c r="I8" s="32"/>
       <c r="J8" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K8" s="29"/>
       <c r="L8" s="29"/>
@@ -2186,7 +2212,7 @@
         <v>73</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>74</v>
@@ -2196,15 +2222,15 @@
       </c>
       <c r="J10" s="31"/>
       <c r="K10" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L10" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>76</v>
@@ -2236,7 +2262,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>76</v>
@@ -2268,10 +2294,10 @@
     </row>
     <row r="13" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>76</v>
@@ -2292,7 +2318,7 @@
         <v>76</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>76</v>
@@ -2330,7 +2356,7 @@
         <v>81</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>76</v>
@@ -2344,7 +2370,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>76</v>
@@ -2376,7 +2402,7 @@
     </row>
     <row r="16" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>77</v>
@@ -2400,7 +2426,7 @@
         <v>83</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>76</v>
@@ -2414,7 +2440,7 @@
     </row>
     <row r="17" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>77</v>
@@ -2438,7 +2464,7 @@
         <v>87</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>76</v>
@@ -2452,7 +2478,7 @@
     </row>
     <row r="18" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>76</v>
@@ -2508,7 +2534,7 @@
         <v>89</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>76</v>
@@ -2522,7 +2548,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>76</v>
@@ -2554,7 +2580,7 @@
     </row>
     <row r="21" spans="1:12" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>77</v>
@@ -2572,13 +2598,13 @@
         <v>78</v>
       </c>
       <c r="G21" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>158</v>
-      </c>
       <c r="I21" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>76</v>
@@ -2592,7 +2618,7 @@
     </row>
     <row r="22" spans="1:12" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>77</v>
@@ -2610,13 +2636,13 @@
         <v>77</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>83</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>76</v>
@@ -2630,7 +2656,7 @@
     </row>
     <row r="23" spans="1:12" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>77</v>
@@ -2648,13 +2674,13 @@
         <v>77</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H23" s="3">
         <v>275</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>76</v>
@@ -2707,7 +2733,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2724,12 +2750,12 @@
         <v>92</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>97</v>
@@ -2746,7 +2772,7 @@
     </row>
     <row r="5" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>98</v>
@@ -2763,10 +2789,10 @@
     </row>
     <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>148</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>149</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>95</v>
@@ -2797,7 +2823,7 @@
     </row>
     <row r="8" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>99</v>
@@ -2814,10 +2840,10 @@
     </row>
     <row r="9" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>146</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>147</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>94</v>
@@ -2831,7 +2857,7 @@
     </row>
     <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>96</v>
@@ -2848,7 +2874,7 @@
     </row>
     <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>97</v>
@@ -2882,7 +2908,7 @@
     </row>
     <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>96</v>
@@ -2899,7 +2925,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>96</v>
@@ -2916,10 +2942,10 @@
     </row>
     <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>95</v>
@@ -2933,13 +2959,13 @@
     </row>
     <row r="16" spans="1:5" s="21" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B16" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>176</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>177</v>
       </c>
       <c r="D16" s="14">
         <v>453</v>

--- a/docs/Supplementary Tables.xlsx
+++ b/docs/Supplementary Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efrat\Documents\GitHub\microbiome-metabolome-curated-data\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4049DD9B-05E3-4885-AA68-081DE56661DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB70FAE-0869-4BE4-A48D-086DCD4252A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24675" yWindow="10275" windowWidth="9600" windowHeight="4905" activeTab="1" xr2:uid="{C58E8523-33F6-4E0C-953F-5B6F4D40C8B0}"/>
+    <workbookView xWindow="-28920" yWindow="735" windowWidth="29040" windowHeight="15840" xr2:uid="{C58E8523-33F6-4E0C-953F-5B6F4D40C8B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="185">
   <si>
     <t>Dataset ID (1)</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>49M</t>
-  </si>
-  <si>
     <t>Targeted</t>
   </si>
   <si>
@@ -123,9 +120,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>5K</t>
-  </si>
-  <si>
     <t>HPLC-GC/MS-MS</t>
   </si>
   <si>
@@ -135,9 +129,6 @@
     <t>MiSeq</t>
   </si>
   <si>
-    <t>33K</t>
-  </si>
-  <si>
     <t>NMR</t>
   </si>
   <si>
@@ -165,9 +156,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>620K</t>
-  </si>
-  <si>
     <t>UPLC-ToFMS</t>
   </si>
   <si>
@@ -183,9 +171,6 @@
     <t>2 X 150</t>
   </si>
   <si>
-    <t>58M</t>
-  </si>
-  <si>
     <t>Influence of gastrectomy for gastric cancer treatment on faecal microbiome and metabolome profiles</t>
   </si>
   <si>
@@ -195,16 +180,10 @@
     <t>2 X 300</t>
   </si>
   <si>
-    <t>36K</t>
-  </si>
-  <si>
     <t>UPLC-MS/MS</t>
   </si>
   <si>
     <t xml:space="preserve">HiSeq 2500 / NextSeq </t>
-  </si>
-  <si>
-    <t>414K</t>
   </si>
   <si>
     <t>Mendeley (https://doi.org/10.17632/29n2z5r5ph.3)</t>
@@ -421,9 +400,6 @@
     <t>WGSS - HiSeq2500; 16S - MiSeq</t>
   </si>
   <si>
-    <t xml:space="preserve">WGSS - 15M; </t>
-  </si>
-  <si>
     <t>Supplementary Table S2: 16S/WGSS data processing notes per dataset</t>
   </si>
   <si>
@@ -505,18 +481,12 @@
     <t>16S V2-V3</t>
   </si>
   <si>
-    <t>41K</t>
-  </si>
-  <si>
     <t>18.7K</t>
   </si>
   <si>
     <t>4.6K</t>
   </si>
   <si>
-    <t>72K</t>
-  </si>
-  <si>
     <t>Avg. high-quality (denoised) sequences per sample</t>
   </si>
   <si>
@@ -547,9 +517,6 @@
     <t>2 X 250</t>
   </si>
   <si>
-    <t>32K</t>
-  </si>
-  <si>
     <t>Paper SI + GitHub</t>
   </si>
   <si>
@@ -589,12 +556,6 @@
     <t>Reads length</t>
   </si>
   <si>
-    <t>Sequencing depth (Avg. number of reads per sample) (4)</t>
-  </si>
-  <si>
-    <t>(4) In raw sequencing files (i.e. before processing)</t>
-  </si>
-  <si>
     <t>Control subjects are shared with ERAWIJANTARI_GASTRIC_CANCER_2020 study (a column indicating which subjects exactly was added to the metadata)</t>
   </si>
   <si>
@@ -610,9 +571,6 @@
     <t>assignTaxonomy function (DADA2 R package) with a GTDB reference database</t>
   </si>
   <si>
-    <t>TBC</t>
-  </si>
-  <si>
     <t>Inflammatory bowel disease patients and their first degree (healthy) relatives.</t>
   </si>
   <si>
@@ -626,13 +584,26 @@
   </si>
   <si>
     <t>Mendeley (https://doi.org/10.17632/29n2z5r5ph.3) / ENA PRJEB37924</t>
+  </si>
+  <si>
+    <t>Avg. number of reads in raw fastq files</t>
+  </si>
+  <si>
+    <t>Avg. number of reads after quality filtering</t>
+  </si>
+  <si>
+    <t>Avg. number of reads after host filtering</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -711,30 +682,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="177"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -767,11 +724,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -833,14 +791,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -864,14 +819,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1187,7 +1143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{847F1507-5CF3-4099-A5F0-0BA103DB973E}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1197,31 +1153,31 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="19" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -1234,13 +1190,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57439337-C632-449F-95CC-9CA24940408D}">
-  <dimension ref="A1:R24"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="11" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="L22" sqref="L22"/>
+      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1253,152 +1209,195 @@
     <col min="7" max="7" width="17.54296875" style="3" customWidth="1"/>
     <col min="8" max="8" width="19.26953125" style="3" customWidth="1"/>
     <col min="9" max="10" width="16" style="3" customWidth="1"/>
-    <col min="11" max="11" width="18.1796875" style="34" customWidth="1"/>
-    <col min="12" max="12" width="26.90625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="16.90625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="15.81640625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="18" style="4" customWidth="1"/>
-    <col min="16" max="16" width="25.7265625" style="4" customWidth="1"/>
-    <col min="17" max="17" width="42.7265625" style="4" customWidth="1"/>
-    <col min="18" max="18" width="36.1796875" style="4" customWidth="1"/>
-    <col min="19" max="16384" width="8.7265625" style="3"/>
+    <col min="11" max="11" width="26.90625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="16.90625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="15.81640625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="18" style="4" customWidth="1"/>
+    <col min="15" max="15" width="25.7265625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="42.7265625" style="4" customWidth="1"/>
+    <col min="17" max="17" width="36.1796875" style="4" customWidth="1"/>
+    <col min="18" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="35" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A10" s="29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B9" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C9" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30" t="s">
+      <c r="D9" s="29"/>
+      <c r="E9" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30" t="s">
+      <c r="F9" s="29"/>
+      <c r="G9" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30" t="s">
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="29" t="s">
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="Q10" s="29" t="s">
+      <c r="P9" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q9" s="28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+    </row>
+    <row r="11" spans="1:17" ht="58" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="11">
+        <v>127</v>
+      </c>
+      <c r="D11" s="11">
+        <v>220</v>
+      </c>
+      <c r="E11" s="11">
+        <v>127</v>
+      </c>
+      <c r="F11" s="11">
+        <v>220</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="3">
+        <v>150</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="11">
+        <v>56</v>
+      </c>
+      <c r="D12" s="11">
         <v>164</v>
       </c>
-      <c r="R10" s="29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="58" x14ac:dyDescent="0.35">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="K11" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-    </row>
-    <row r="12" spans="1:18" ht="58" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="11">
-        <v>127</v>
-      </c>
-      <c r="D12" s="11">
-        <v>220</v>
-      </c>
       <c r="E12" s="11">
-        <v>127</v>
+        <v>56</v>
       </c>
       <c r="F12" s="11">
-        <v>220</v>
+        <v>164</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>15</v>
@@ -1406,588 +1405,552 @@
       <c r="I12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="3">
-        <v>150</v>
-      </c>
-      <c r="K12" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>193</v>
+      <c r="J12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N12" s="4" t="s">
         <v>19</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C13" s="11">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="D13" s="11">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="E13" s="11">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="F13" s="11">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="H13" s="3">
+        <v>454</v>
       </c>
       <c r="I13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="58" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="4">
+        <v>80</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="4">
+        <v>277</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="58" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" s="11">
-        <v>89</v>
-      </c>
-      <c r="D14" s="11">
-        <v>42</v>
-      </c>
-      <c r="E14" s="11">
-        <v>89</v>
-      </c>
-      <c r="F14" s="11">
-        <v>42</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="J14" s="3">
+        <v>250</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="58" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="11">
         <v>26</v>
       </c>
-      <c r="H14" s="3">
-        <v>454</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="L14" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q14" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="R14" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="58" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" s="4">
-        <v>80</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="4">
-        <v>277</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>27</v>
+      <c r="D15" s="11">
+        <v>79</v>
+      </c>
+      <c r="E15" s="11">
+        <v>107</v>
+      </c>
+      <c r="F15" s="11">
+        <v>282</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="3">
-        <v>250</v>
-      </c>
-      <c r="K15" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="L15" s="11" t="s">
+      <c r="J15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="M15" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="N15" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O15" s="4" t="s">
         <v>34</v>
       </c>
       <c r="P15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C16" s="11">
+        <v>54</v>
+      </c>
+      <c r="D16" s="11">
+        <v>36</v>
+      </c>
+      <c r="E16" s="11">
+        <v>54</v>
+      </c>
+      <c r="F16" s="11">
+        <v>36</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="3">
+        <v>100</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N16" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="11">
+        <v>83</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="11">
+        <v>164</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Q15" s="4" t="s">
+      <c r="N17" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="58" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="11">
+        <v>54</v>
+      </c>
+      <c r="D18" s="11">
+        <v>42</v>
+      </c>
+      <c r="E18" s="11">
+        <v>54</v>
+      </c>
+      <c r="F18" s="11">
+        <v>42</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" ht="58" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="11">
-        <v>26</v>
-      </c>
-      <c r="D16" s="11">
-        <v>79</v>
-      </c>
-      <c r="E16" s="11">
-        <v>107</v>
-      </c>
-      <c r="F16" s="11">
-        <v>286</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K16" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="L16" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="R16" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="C17" s="11">
-        <v>54</v>
-      </c>
-      <c r="D17" s="11">
-        <v>36</v>
-      </c>
-      <c r="E17" s="11">
-        <v>54</v>
-      </c>
-      <c r="F17" s="11">
-        <v>36</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J17" s="3">
-        <v>100</v>
-      </c>
-      <c r="K17" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="L17" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O17" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="11">
-        <v>83</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="11">
-        <v>164</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="H18" s="3" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="L18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N18" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="O18" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="58" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="M18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O18" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q18" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="R18" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="58" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>121</v>
-      </c>
       <c r="C19" s="11">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="D19" s="11">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="E19" s="11">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="F19" s="11">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="K19" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="N19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O19" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="P19" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q19" s="4" t="s">
+      <c r="O19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="58" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="11">
+        <v>24</v>
+      </c>
+      <c r="D20" s="11">
+        <v>51</v>
+      </c>
+      <c r="E20" s="11">
+        <v>139</v>
+      </c>
+      <c r="F20" s="11">
+        <v>305</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="3">
+        <v>100</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N20" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="R19" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="58" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C20" s="11">
-        <v>102</v>
-      </c>
-      <c r="D20" s="11">
-        <v>138</v>
-      </c>
-      <c r="E20" s="11">
-        <v>102</v>
-      </c>
-      <c r="F20" s="11">
-        <v>138</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H20" s="3" t="s">
+      <c r="O20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" s="4">
+        <v>21</v>
+      </c>
+      <c r="D21" s="4">
+        <v>23</v>
+      </c>
+      <c r="E21" s="4">
+        <v>21</v>
+      </c>
+      <c r="F21" s="4">
+        <v>23</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H21" s="3">
+        <v>454</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="L21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="58" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" s="4">
+        <v>8</v>
+      </c>
+      <c r="D22" s="4">
+        <v>11</v>
+      </c>
+      <c r="E22" s="4">
+        <v>37</v>
+      </c>
+      <c r="F22" s="4">
+        <v>66</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K20" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="P20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q20" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="58" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" s="11">
-        <v>24</v>
-      </c>
-      <c r="D21" s="11">
-        <v>51</v>
-      </c>
-      <c r="E21" s="11">
-        <v>142</v>
-      </c>
-      <c r="F21" s="11">
-        <v>313</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J21" s="3">
-        <v>100</v>
-      </c>
-      <c r="K21" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N21" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q21" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="R21" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B22" s="4" t="s">
+      <c r="J22" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="K22" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="C22" s="4">
+      <c r="L22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N22" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="58" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" s="4">
         <v>21</v>
-      </c>
-      <c r="D22" s="4">
-        <v>23</v>
-      </c>
-      <c r="E22" s="4">
-        <v>21</v>
-      </c>
-      <c r="F22" s="4">
-        <v>23</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="H22" s="3">
-        <v>454</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K22" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N22" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="O22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="P22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q22" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="58" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C23" s="4">
-        <v>8</v>
       </c>
       <c r="D23" s="4">
         <v>11</v>
@@ -1996,109 +1959,53 @@
         <v>37</v>
       </c>
       <c r="F23" s="4">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J23" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M23" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="K23" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="L23" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="N23" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O23" s="17" t="s">
-        <v>34</v>
+        <v>160</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q23" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="58" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C24" s="4">
-        <v>21</v>
-      </c>
-      <c r="D24" s="4">
-        <v>11</v>
-      </c>
-      <c r="E24" s="4">
-        <v>37</v>
-      </c>
-      <c r="F24" s="4">
-        <v>38</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="K24" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N24" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="O24" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="P24" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q24" s="4" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="G10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="L23" r:id="rId1" xr:uid="{CF64AB01-D3F6-450B-B154-C029DE60451D}"/>
+    <hyperlink ref="K22" r:id="rId1" xr:uid="{CF64AB01-D3F6-450B-B154-C029DE60451D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId2"/>
@@ -2107,13 +2014,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6614462A-48C8-42E0-BE6C-65302361CC63}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomRight" activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2123,546 +2030,604 @@
     <col min="3" max="6" width="17.36328125" customWidth="1"/>
     <col min="7" max="7" width="24.90625" customWidth="1"/>
     <col min="8" max="8" width="10.6328125" customWidth="1"/>
-    <col min="9" max="9" width="34.26953125" style="24" customWidth="1"/>
+    <col min="9" max="9" width="34.26953125" style="23" customWidth="1"/>
     <col min="10" max="10" width="26.08984375" customWidth="1"/>
+    <col min="11" max="13" width="19.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="31"/>
+      <c r="B9" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="30"/>
+      <c r="I9" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+    </row>
+    <row r="10" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="31"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" s="30"/>
+      <c r="K10" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="L10" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="M10" s="25" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" s="33">
+        <v>15187219.593817787</v>
+      </c>
+      <c r="L11" s="33">
+        <v>15187218.125813449</v>
+      </c>
+      <c r="M11" s="33">
+        <v>15186345.503253795</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="32"/>
-      <c r="B9" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="31"/>
-      <c r="I9" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="J9" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-    </row>
-    <row r="10" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="32"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="10" t="s">
+      <c r="B12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="I10" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="J10" s="31"/>
-      <c r="K10" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="L10" s="23" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K12" s="33">
+        <v>15030173.955056179</v>
+      </c>
+      <c r="L12" s="33">
+        <v>14585278.988764046</v>
+      </c>
+      <c r="M12" s="33">
+        <v>14336757.303370787</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13" s="27" t="s">
-        <v>188</v>
+        <v>69</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>175</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+      <c r="K13" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D14" s="7">
         <v>292</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+      <c r="K14" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+      <c r="K15" s="33">
+        <v>10826036.153164556</v>
+      </c>
+      <c r="L15" s="33">
+        <v>10826030.353164557</v>
+      </c>
+      <c r="M15" s="33">
+        <v>10817935.358227849</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D16" s="7">
         <v>101</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K16" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>85</v>
-      </c>
       <c r="F17" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+      <c r="K17" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+      <c r="K18" s="33">
+        <v>16015092.5</v>
+      </c>
+      <c r="L18" s="33">
+        <v>16015089.031446541</v>
+      </c>
+      <c r="M18" s="33">
+        <v>16014616.402515722</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D19" s="7">
         <v>231</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+      <c r="K19" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+      <c r="K20" s="33">
+        <v>1166633.7307692308</v>
+      </c>
+      <c r="L20" s="33">
+        <v>1165220.9644970414</v>
+      </c>
+      <c r="M20" s="33">
+        <v>1164200.9822485207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D21" s="3">
         <v>250</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+      <c r="K21" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D22" s="3">
         <v>173</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+      <c r="K22" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D23" s="3">
         <v>140</v>
@@ -2671,29 +2636,30 @@
         <v>18</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="H23" s="3">
         <v>275</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="I24" s="28"/>
+        <v>69</v>
+      </c>
+      <c r="K23" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I24" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2703,8 +2669,8 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="G9:H9"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="K9:M9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
@@ -2733,35 +2699,35 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D4" s="14">
         <v>450</v>
@@ -2772,13 +2738,13 @@
     </row>
     <row r="5" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D5" s="14">
         <v>8848</v>
@@ -2789,13 +2755,13 @@
     </row>
     <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D6" s="14">
         <v>530</v>
@@ -2806,13 +2772,13 @@
     </row>
     <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D7" s="14">
         <v>120</v>
@@ -2823,13 +2789,13 @@
     </row>
     <row r="8" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D8" s="14">
         <v>81867</v>
@@ -2840,13 +2806,13 @@
     </row>
     <row r="9" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D9" s="14">
         <v>4626</v>
@@ -2857,13 +2823,13 @@
     </row>
     <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D10" s="14">
         <v>489</v>
@@ -2874,13 +2840,13 @@
     </row>
     <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D11" s="15">
         <v>524</v>
@@ -2891,13 +2857,13 @@
     </row>
     <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D12" s="15">
         <v>462</v>
@@ -2908,13 +2874,13 @@
     </row>
     <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D13" s="14">
         <v>43</v>
@@ -2925,13 +2891,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D14" s="14">
         <v>61</v>
@@ -2942,13 +2908,13 @@
     </row>
     <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D15" s="14">
         <v>184</v>
@@ -2959,13 +2925,13 @@
     </row>
     <row r="16" spans="1:5" s="21" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="21" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D16" s="14">
         <v>453</v>

--- a/docs/Supplementary Tables.xlsx
+++ b/docs/Supplementary Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efrat\Documents\GitHub\microbiome-metabolome-curated-data\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB70FAE-0869-4BE4-A48D-086DCD4252A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB2D215-FB39-4DE4-9014-0F052846A8DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="735" windowWidth="29040" windowHeight="15840" xr2:uid="{C58E8523-33F6-4E0C-953F-5B6F4D40C8B0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C58E8523-33F6-4E0C-953F-5B6F4D40C8B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="184">
   <si>
     <t>Dataset ID (1)</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Untargeted</t>
   </si>
   <si>
-    <t>LC-MS</t>
-  </si>
-  <si>
     <t>Gut microbiome structure and metabolic activity in inflammatory bowel disease</t>
   </si>
   <si>
@@ -129,9 +126,6 @@
     <t>MiSeq</t>
   </si>
   <si>
-    <t>NMR</t>
-  </si>
-  <si>
     <t>Sent by authors</t>
   </si>
   <si>
@@ -144,9 +138,6 @@
     <t>iHMP website (ibdmdb.org)</t>
   </si>
   <si>
-    <t>LC-MS (four methods)</t>
-  </si>
-  <si>
     <t>Multi-omics of the gut microbial ecosystem in inflammatory bowel diseases</t>
   </si>
   <si>
@@ -156,9 +147,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>UPLC-ToFMS</t>
-  </si>
-  <si>
     <t>A Disease-Associated Microbial and Metabolomics State in Relatives of Pediatric Inflammatory Bowel Disease Patients</t>
   </si>
   <si>
@@ -187,9 +175,6 @@
   </si>
   <si>
     <t>Mendeley (https://doi.org/10.17632/29n2z5r5ph.3)</t>
-  </si>
-  <si>
-    <t>NMR + LC-MS/MS</t>
   </si>
   <si>
     <t>Longitudinal Multi-omics Reveals Subset-Specific Mechanisms Underlying Irritable Bowel Syndrome</t>
@@ -475,9 +460,6 @@
     <t>Children with ASD and neurotypical children as controls</t>
   </si>
   <si>
-    <t>H-NMR</t>
-  </si>
-  <si>
     <t>16S V2-V3</t>
   </si>
   <si>
@@ -593,6 +575,21 @@
   </si>
   <si>
     <t>Avg. number of reads after host filtering</t>
+  </si>
+  <si>
+    <t>The dataset includes two different cohorts: the main PRISM cohort (from Boston, USA) and a validation cohort from the Netherlands.</t>
+  </si>
+  <si>
+    <t>UPLC/ToFMS</t>
+  </si>
+  <si>
+    <t>Four complimentary LC-MS methods</t>
+  </si>
+  <si>
+    <t>1H-NMR</t>
+  </si>
+  <si>
+    <t>1H-NMR + LC-MS/MS</t>
   </si>
 </sst>
 </file>
@@ -601,7 +598,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -804,6 +801,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -818,12 +821,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1153,31 +1150,31 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="19" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -1196,7 +1193,7 @@
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomRight" activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1221,69 +1218,69 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29" t="s">
+      <c r="D9" s="31"/>
+      <c r="E9" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29" t="s">
+      <c r="F9" s="31"/>
+      <c r="G9" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29" t="s">
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="28" t="s">
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="P9" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q9" s="28" t="s">
+      <c r="P9" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q9" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1297,7 +1294,7 @@
         <v>9</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>10</v>
@@ -1306,7 +1303,7 @@
         <v>11</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>12</v>
@@ -1320,16 +1317,16 @@
       <c r="N10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
     </row>
     <row r="11" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C11" s="11">
         <v>127</v>
@@ -1344,7 +1341,7 @@
         <v>220</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>15</v>
@@ -1356,7 +1353,7 @@
         <v>150</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>17</v>
@@ -1374,15 +1371,15 @@
         <v>20</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C12" s="11">
         <v>56</v>
@@ -1397,7 +1394,7 @@
         <v>164</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>15</v>
@@ -1409,13 +1406,13 @@
         <v>21</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>22</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>23</v>
+        <v>181</v>
       </c>
       <c r="N12" s="4" t="s">
         <v>19</v>
@@ -1424,15 +1421,18 @@
         <v>19</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C13" s="11">
         <v>89</v>
@@ -1447,16 +1447,16 @@
         <v>42</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H13" s="3">
         <v>454</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K13" s="11" t="s">
         <v>19</v>
@@ -1465,7 +1465,7 @@
         <v>22</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N13" s="4" t="s">
         <v>19</v>
@@ -1474,36 +1474,36 @@
         <v>19</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C14" s="4">
         <v>80</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E14" s="4">
         <v>277</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>16</v>
@@ -1512,30 +1512,30 @@
         <v>250</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="N14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="P14" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C15" s="11">
         <v>26</v>
@@ -1550,10 +1550,10 @@
         <v>282</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>16</v>
@@ -1562,33 +1562,33 @@
         <v>21</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>22</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>35</v>
+        <v>181</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C16" s="11">
         <v>54</v>
@@ -1603,60 +1603,60 @@
         <v>36</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J16" s="3">
         <v>100</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="L16" s="4" t="s">
         <v>22</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="N16" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C17" s="11">
         <v>83</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E17" s="11">
         <v>164</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>16</v>
@@ -1665,33 +1665,33 @@
         <v>21</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>22</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>35</v>
+        <v>181</v>
       </c>
       <c r="N17" s="11" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="O17" s="4" t="s">
         <v>19</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C18" s="11">
         <v>54</v>
@@ -1706,7 +1706,7 @@
         <v>42</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>15</v>
@@ -1715,10 +1715,10 @@
         <v>16</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="L18" s="4" t="s">
         <v>17</v>
@@ -1727,24 +1727,24 @@
         <v>18</v>
       </c>
       <c r="N18" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O18" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C19" s="11">
         <v>102</v>
@@ -1759,25 +1759,25 @@
         <v>138</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>22</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="N19" s="4" t="s">
         <v>19</v>
@@ -1786,15 +1786,15 @@
         <v>19</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C20" s="11">
         <v>24</v>
@@ -1809,45 +1809,45 @@
         <v>305</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J20" s="3">
         <v>100</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>50</v>
+        <v>183</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="O20" s="4" t="s">
         <v>19</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C21" s="4">
         <v>21</v>
@@ -1862,25 +1862,25 @@
         <v>23</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="H21" s="3">
         <v>454</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L21" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="N21" s="4" t="s">
         <v>19</v>
@@ -1889,15 +1889,15 @@
         <v>19</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C22" s="4">
         <v>8</v>
@@ -1912,42 +1912,42 @@
         <v>66</v>
       </c>
       <c r="G22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="K22" s="22" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>22</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>35</v>
+        <v>181</v>
       </c>
       <c r="N22" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O22" s="4" t="s">
         <v>19</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C23" s="4">
         <v>21</v>
@@ -1962,34 +1962,34 @@
         <v>38</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>22</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2037,597 +2037,597 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="33"/>
+      <c r="B9" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="31" t="s">
+      <c r="H9" s="32"/>
+      <c r="I9" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="J9" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+    </row>
+    <row r="10" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="33"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="31"/>
-      <c r="B9" s="30" t="s">
+      <c r="D10" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="E10" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30" t="s">
+      <c r="F10" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="H9" s="30"/>
-      <c r="I9" s="24" t="s">
+      <c r="G10" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="J9" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-    </row>
-    <row r="10" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="31"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="10" t="s">
+      <c r="I10" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="J10" s="30"/>
+      <c r="J10" s="32"/>
       <c r="K10" s="25" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="L10" s="25" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="M10" s="25" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K11" s="33">
+        <v>65</v>
+      </c>
+      <c r="K11" s="28">
         <v>15187219.593817787</v>
       </c>
-      <c r="L11" s="33">
+      <c r="L11" s="28">
         <v>15187218.125813449</v>
       </c>
-      <c r="M11" s="33">
+      <c r="M11" s="28">
         <v>15186345.503253795</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K12" s="33">
+        <v>65</v>
+      </c>
+      <c r="K12" s="28">
         <v>15030173.955056179</v>
       </c>
-      <c r="L12" s="33">
+      <c r="L12" s="28">
         <v>14585278.988764046</v>
       </c>
-      <c r="M12" s="33">
+      <c r="M12" s="28">
         <v>14336757.303370787</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I13" s="26" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="K13" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34" t="s">
-        <v>69</v>
+        <v>64</v>
+      </c>
+      <c r="K13" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D14" s="7">
         <v>292</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="K14" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34" t="s">
-        <v>69</v>
+        <v>64</v>
+      </c>
+      <c r="K14" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K15" s="33">
+        <v>65</v>
+      </c>
+      <c r="K15" s="28">
         <v>10826036.153164556</v>
       </c>
-      <c r="L15" s="33">
+      <c r="L15" s="28">
         <v>10826030.353164557</v>
       </c>
-      <c r="M15" s="33">
+      <c r="M15" s="28">
         <v>10817935.358227849</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D16" s="7">
         <v>101</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>76</v>
-      </c>
       <c r="I16" s="16" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="K16" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34" t="s">
-        <v>69</v>
+        <v>64</v>
+      </c>
+      <c r="K16" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="K17" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34" t="s">
-        <v>69</v>
+        <v>64</v>
+      </c>
+      <c r="K17" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K18" s="33">
+        <v>65</v>
+      </c>
+      <c r="K18" s="28">
         <v>16015092.5</v>
       </c>
-      <c r="L18" s="33">
+      <c r="L18" s="28">
         <v>16015089.031446541</v>
       </c>
-      <c r="M18" s="33">
+      <c r="M18" s="28">
         <v>16014616.402515722</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D19" s="7">
         <v>231</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="K19" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34" t="s">
-        <v>69</v>
+        <v>64</v>
+      </c>
+      <c r="K19" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K20" s="33">
+        <v>65</v>
+      </c>
+      <c r="K20" s="28">
         <v>1166633.7307692308</v>
       </c>
-      <c r="L20" s="33">
+      <c r="L20" s="28">
         <v>1165220.9644970414</v>
       </c>
-      <c r="M20" s="33">
+      <c r="M20" s="28">
         <v>1164200.9822485207</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D21" s="3">
         <v>250</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="K21" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34" t="s">
-        <v>69</v>
+        <v>64</v>
+      </c>
+      <c r="K21" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D22" s="3">
         <v>173</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H22" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>76</v>
-      </c>
       <c r="I22" s="16" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="K22" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34" t="s">
-        <v>69</v>
+        <v>64</v>
+      </c>
+      <c r="K22" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:13" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D23" s="3">
         <v>140</v>
@@ -2636,26 +2636,26 @@
         <v>18</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H23" s="3">
         <v>275</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="K23" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34" t="s">
-        <v>69</v>
+        <v>64</v>
+      </c>
+      <c r="K23" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -2699,35 +2699,35 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D4" s="14">
         <v>450</v>
@@ -2738,13 +2738,13 @@
     </row>
     <row r="5" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D5" s="14">
         <v>8848</v>
@@ -2755,13 +2755,13 @@
     </row>
     <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D6" s="14">
         <v>530</v>
@@ -2772,13 +2772,13 @@
     </row>
     <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D7" s="14">
         <v>120</v>
@@ -2789,13 +2789,13 @@
     </row>
     <row r="8" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D8" s="14">
         <v>81867</v>
@@ -2806,13 +2806,13 @@
     </row>
     <row r="9" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D9" s="14">
         <v>4626</v>
@@ -2823,13 +2823,13 @@
     </row>
     <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D10" s="14">
         <v>489</v>
@@ -2840,13 +2840,13 @@
     </row>
     <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D11" s="15">
         <v>524</v>
@@ -2857,13 +2857,13 @@
     </row>
     <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D12" s="15">
         <v>462</v>
@@ -2874,13 +2874,13 @@
     </row>
     <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D13" s="14">
         <v>43</v>
@@ -2891,13 +2891,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D14" s="14">
         <v>61</v>
@@ -2908,13 +2908,13 @@
     </row>
     <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D15" s="14">
         <v>184</v>
@@ -2925,13 +2925,13 @@
     </row>
     <row r="16" spans="1:5" s="21" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="21" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D16" s="14">
         <v>453</v>

--- a/docs/Supplementary Tables.xlsx
+++ b/docs/Supplementary Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efrat\Documents\GitHub\microbiome-metabolome-curated-data\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB2D215-FB39-4DE4-9014-0F052846A8DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6437C7-3190-4FA3-AF0A-49DA7C24CE5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C58E8523-33F6-4E0C-953F-5B6F4D40C8B0}"/>
+    <workbookView xWindow="-28920" yWindow="735" windowWidth="29040" windowHeight="15720" xr2:uid="{C58E8523-33F6-4E0C-953F-5B6F4D40C8B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="194">
   <si>
     <t>Dataset ID (1)</t>
   </si>
@@ -590,6 +590,36 @@
   </si>
   <si>
     <t>1H-NMR + LC-MS/MS</t>
+  </si>
+  <si>
+    <t>WANG_ESRD_2020</t>
+  </si>
+  <si>
+    <t>Adults with end-stage renal disease (ESRD) and controls.</t>
+  </si>
+  <si>
+    <t>2×150</t>
+  </si>
+  <si>
+    <t>HiSeq X Ten</t>
+  </si>
+  <si>
+    <t>BioProject: PRJNA449784</t>
+  </si>
+  <si>
+    <t>MetaboLights database: accession number MTBLS700</t>
+  </si>
+  <si>
+    <t>Aberrant gut microbiota alters host metabolome and impacts renal failure in humans and rodents</t>
+  </si>
+  <si>
+    <t>kraken2 and bracken with GTDB reference database</t>
+  </si>
+  <si>
+    <t>Statistics (5)</t>
+  </si>
+  <si>
+    <t>(5) Statistics averaged over forward and backward reads;</t>
   </si>
 </sst>
 </file>
@@ -798,9 +828,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
@@ -819,8 +846,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1187,13 +1217,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57439337-C632-449F-95CC-9CA24940408D}">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="M23" sqref="M23"/>
+      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1242,45 +1272,45 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31" t="s">
+      <c r="D9" s="30"/>
+      <c r="E9" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31" t="s">
+      <c r="F9" s="30"/>
+      <c r="G9" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31" t="s">
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="30" t="s">
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="P9" s="30" t="s">
+      <c r="P9" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="Q9" s="30" t="s">
+      <c r="Q9" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1317,9 +1347,9 @@
       <c r="N10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
     </row>
     <row r="11" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -1990,6 +2020,56 @@
       </c>
       <c r="P23" s="4" t="s">
         <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C24" s="11">
+        <v>67</v>
+      </c>
+      <c r="D24" s="11">
+        <v>220</v>
+      </c>
+      <c r="E24" s="11">
+        <v>67</v>
+      </c>
+      <c r="F24" s="11">
+        <v>220</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2014,13 +2094,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6614462A-48C8-42E0-BE6C-65302361CC63}">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="11" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="O19" sqref="O19"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2033,158 +2113,132 @@
     <col min="9" max="9" width="34.26953125" style="23" customWidth="1"/>
     <col min="10" max="10" width="26.08984375" customWidth="1"/>
     <col min="11" max="13" width="19.08984375" customWidth="1"/>
+    <col min="14" max="14" width="29.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="33" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B9" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="33"/>
-      <c r="B9" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>55</v>
-      </c>
+      <c r="C9" s="32"/>
       <c r="D9" s="32"/>
       <c r="E9" s="32"/>
       <c r="F9" s="32"/>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="32"/>
+      <c r="B10" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="32"/>
-      <c r="I9" s="24" t="s">
+      <c r="H10" s="31"/>
+      <c r="I10" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="J9" s="32" t="s">
+      <c r="J10" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-    </row>
-    <row r="10" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="33"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="10" t="s">
+      <c r="K10" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="32"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D11" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E11" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F11" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G11" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H11" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="25" t="s">
+      <c r="I11" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J10" s="32"/>
-      <c r="K10" s="25" t="s">
+      <c r="J11" s="31"/>
+      <c r="K11" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="L10" s="25" t="s">
+      <c r="L11" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="M10" s="25" t="s">
+      <c r="M11" s="25" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
+      <c r="N11" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
         <v>125</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="K11" s="28">
-        <v>15187219.593817787</v>
-      </c>
-      <c r="L11" s="28">
-        <v>15187218.125813449</v>
-      </c>
-      <c r="M11" s="28">
-        <v>15186345.503253795</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>64</v>
@@ -2213,177 +2267,198 @@
       <c r="J12" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K12" s="28">
+      <c r="K12" s="27">
+        <v>15187219.593817787</v>
+      </c>
+      <c r="L12" s="27">
+        <v>15187218.125813449</v>
+      </c>
+      <c r="M12" s="27">
+        <v>15186345.503253795</v>
+      </c>
+      <c r="N12" s="34" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" s="27">
         <v>15030173.955056179</v>
       </c>
-      <c r="L12" s="28">
+      <c r="L13" s="27">
         <v>14585278.988764046</v>
       </c>
-      <c r="M12" s="28">
+      <c r="M13" s="27">
         <v>14336757.303370787</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+      <c r="N13" s="34" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B14" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I13" s="26" t="s">
+      <c r="C14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="J13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K13" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
+      <c r="J14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K14" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="M14" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="N14" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B15" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D15" s="7">
         <v>292</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H15" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="I14" s="16" t="s">
+      <c r="I15" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="J14" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K14" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+      <c r="J15" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K15" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="L15" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="M15" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="N15" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="J15" s="7" t="s">
+      <c r="B16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K15" s="28">
+      <c r="K16" s="27">
         <v>10826036.153164556</v>
       </c>
-      <c r="L15" s="28">
+      <c r="L16" s="27">
         <v>10826030.353164557</v>
       </c>
-      <c r="M15" s="28">
+      <c r="M16" s="27">
         <v>10817935.358227849</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+      <c r="N16" s="34" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="7">
-        <v>101</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K16" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>130</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>65</v>
@@ -2391,20 +2466,20 @@
       <c r="C17" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>72</v>
+      <c r="D17" s="7">
+        <v>101</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I17" s="16" t="s">
         <v>170</v>
@@ -2412,198 +2487,219 @@
       <c r="J17" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K17" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
+      <c r="K17" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="L17" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="M17" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="N17" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K18" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="L18" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="M18" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="N18" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="I18" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="B19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K18" s="28">
+      <c r="K19" s="27">
         <v>16015092.5</v>
       </c>
-      <c r="L18" s="28">
+      <c r="L19" s="27">
         <v>16015089.031446541</v>
       </c>
-      <c r="M18" s="28">
+      <c r="M19" s="27">
         <v>16014616.402515722</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="8" t="s">
+      <c r="N19" s="34" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B20" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C20" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D20" s="7">
         <v>231</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E20" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F20" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G20" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H20" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="I19" s="16" t="s">
+      <c r="I20" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="J19" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K19" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="8" t="s">
+      <c r="J20" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K20" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="L20" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="M20" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="N20" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="B21" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K20" s="28">
+      <c r="K21" s="27">
         <v>1166633.7307692308</v>
       </c>
-      <c r="L20" s="28">
+      <c r="L21" s="27">
         <v>1165220.9644970414</v>
       </c>
-      <c r="M20" s="28">
+      <c r="M21" s="27">
         <v>1164200.9822485207</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
+      <c r="N21" s="34" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="3">
-        <v>250</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="I21" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K21" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="3">
-        <v>173</v>
+        <v>250</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>66</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>71</v>
+        <v>141</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="I22" s="16" t="s">
         <v>170</v>
@@ -2611,17 +2707,22 @@
       <c r="J22" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K22" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="K22" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="L22" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="M22" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="N22" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>65</v>
@@ -2630,19 +2731,19 @@
         <v>66</v>
       </c>
       <c r="D23" s="3">
-        <v>140</v>
-      </c>
-      <c r="E23" s="3">
-        <v>18</v>
+        <v>173</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>65</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="H23" s="3">
-        <v>275</v>
+        <v>144</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="I23" s="16" t="s">
         <v>170</v>
@@ -2650,27 +2751,117 @@
       <c r="J23" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K23" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="I24" s="27"/>
+      <c r="K23" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="L23" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="M23" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="N23" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="3">
+        <v>140</v>
+      </c>
+      <c r="E24" s="3">
+        <v>18</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H24" s="3">
+        <v>275</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K24" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="L24" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="M24" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="N24" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K25" s="27">
+        <v>37397558.22260274</v>
+      </c>
+      <c r="L25" s="27">
+        <v>37394708.31678082</v>
+      </c>
+      <c r="M25" s="27">
+        <v>37378334.239726029</v>
+      </c>
+      <c r="N25" s="34" t="s">
+        <v>191</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="J9:N9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
@@ -2679,13 +2870,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68D4DCF2-36AB-48DD-A183-E01DBA17A9A9}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2940,6 +3131,23 @@
         <v>198</v>
       </c>
     </row>
+    <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="14">
+        <v>276</v>
+      </c>
+      <c r="E17" s="14">
+        <v>148</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" orientation="portrait" r:id="rId1"/>

--- a/docs/Supplementary Tables.xlsx
+++ b/docs/Supplementary Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efrat\Documents\GitHub\microbiome-metabolome-curated-data\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6437C7-3190-4FA3-AF0A-49DA7C24CE5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12930751-99FC-411B-A86D-CADD23B9004C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="735" windowWidth="29040" windowHeight="15720" xr2:uid="{C58E8523-33F6-4E0C-953F-5B6F4D40C8B0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{C58E8523-33F6-4E0C-953F-5B6F4D40C8B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="1" r:id="rId1"/>
@@ -834,6 +834,9 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -848,9 +851,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1170,7 +1170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{847F1507-5CF3-4099-A5F0-0BA103DB973E}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1219,11 +1219,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57439337-C632-449F-95CC-9CA24940408D}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="10" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomRight" activeCell="D24" sqref="C24:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1272,45 +1272,45 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30" t="s">
+      <c r="D9" s="31"/>
+      <c r="E9" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30" t="s">
+      <c r="F9" s="31"/>
+      <c r="G9" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30" t="s">
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="29" t="s">
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="P9" s="29" t="s">
+      <c r="P9" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="Q9" s="29" t="s">
+      <c r="Q9" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1347,9 +1347,9 @@
       <c r="N10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
     </row>
     <row r="11" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -1663,7 +1663,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="58" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>130</v>
       </c>
@@ -2147,60 +2147,60 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="29" t="s">
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="32"/>
-      <c r="B10" s="31" t="s">
+      <c r="A10" s="33"/>
+      <c r="B10" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31" t="s">
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="31"/>
+      <c r="H10" s="32"/>
       <c r="I10" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="J10" s="31" t="s">
+      <c r="J10" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="33" t="s">
+      <c r="K10" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
       <c r="N10" s="24" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="32"/>
-      <c r="B11" s="31"/>
+    <row r="11" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="33"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="10" t="s">
         <v>58</v>
       </c>
@@ -2222,7 +2222,7 @@
       <c r="I11" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="31"/>
+      <c r="J11" s="32"/>
       <c r="K11" s="25" t="s">
         <v>176</v>
       </c>
@@ -2276,7 +2276,7 @@
       <c r="M12" s="27">
         <v>15186345.503253795</v>
       </c>
-      <c r="N12" s="34" t="s">
+      <c r="N12" s="29" t="s">
         <v>191</v>
       </c>
     </row>
@@ -2320,7 +2320,7 @@
       <c r="M13" s="27">
         <v>14336757.303370787</v>
       </c>
-      <c r="N13" s="34" t="s">
+      <c r="N13" s="29" t="s">
         <v>191</v>
       </c>
     </row>
@@ -2452,7 +2452,7 @@
       <c r="M16" s="27">
         <v>10817935.358227849</v>
       </c>
-      <c r="N16" s="34" t="s">
+      <c r="N16" s="29" t="s">
         <v>191</v>
       </c>
     </row>
@@ -2584,7 +2584,7 @@
       <c r="M19" s="27">
         <v>16014616.402515722</v>
       </c>
-      <c r="N19" s="34" t="s">
+      <c r="N19" s="29" t="s">
         <v>191</v>
       </c>
     </row>
@@ -2672,7 +2672,7 @@
       <c r="M21" s="27">
         <v>1164200.9822485207</v>
       </c>
-      <c r="N21" s="34" t="s">
+      <c r="N21" s="29" t="s">
         <v>191</v>
       </c>
     </row>
@@ -2848,20 +2848,20 @@
       <c r="M25" s="27">
         <v>37378334.239726029</v>
       </c>
-      <c r="N25" s="34" t="s">
+      <c r="N25" s="29" t="s">
         <v>191</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="J9:N9"/>
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="G10:H10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="J9:N9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
@@ -2995,7 +2995,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>132</v>
       </c>

--- a/docs/Supplementary Tables.xlsx
+++ b/docs/Supplementary Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efrat\Documents\GitHub\microbiome-metabolome-curated-data\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12930751-99FC-411B-A86D-CADD23B9004C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A794A5C-3C44-4932-83A4-A21F49378DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{C58E8523-33F6-4E0C-953F-5B6F4D40C8B0}"/>
+    <workbookView xWindow="-28920" yWindow="735" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C58E8523-33F6-4E0C-953F-5B6F4D40C8B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="1" r:id="rId1"/>
@@ -843,14 +843,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1220,10 +1220,10 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="D24" sqref="C24:D24"/>
+      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1574,10 +1574,10 @@
         <v>79</v>
       </c>
       <c r="E15" s="11">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F15" s="11">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>110</v>
@@ -2147,19 +2147,19 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
       <c r="J9" s="30" t="s">
         <v>116</v>
       </c>
@@ -2169,38 +2169,38 @@
       <c r="N9" s="30"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="33"/>
-      <c r="B10" s="32" t="s">
+      <c r="A10" s="34"/>
+      <c r="B10" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32" t="s">
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="32"/>
+      <c r="H10" s="33"/>
       <c r="I10" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="J10" s="32" t="s">
+      <c r="J10" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="34" t="s">
+      <c r="K10" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
       <c r="N10" s="24" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="33"/>
-      <c r="B11" s="32"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="10" t="s">
         <v>58</v>
       </c>
@@ -2222,7 +2222,7 @@
       <c r="I11" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="32"/>
+      <c r="J11" s="33"/>
       <c r="K11" s="25" t="s">
         <v>176</v>
       </c>
